--- a/file_exp/interview_results.xlsx
+++ b/file_exp/interview_results.xlsx
@@ -483,13 +483,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9380094380094381</v>
+        <v>0.9281424281424283</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G3" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9171014492753623</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9470967741935484</v>
+        <v>0.9550537634408602</v>
       </c>
     </row>
   </sheetData>
